--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>NOME</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Análise e Desenvolvimento de Sistemas</t>
   </si>
   <si>
-    <t>RAMON RAMOS DE OLIVEIRA</t>
+    <t>RAMON</t>
   </si>
   <si>
     <t>13-97424-7263</t>
@@ -58,7 +58,7 @@
     <t>+5513-99743-5701</t>
   </si>
   <si>
-    <t>JOÃO PEDRO SALOMÃO FLORINDO RIBEIRO</t>
+    <t>João</t>
   </si>
   <si>
     <t>(13) 99733-7177</t>
@@ -67,7 +67,7 @@
     <t>+55(13) 99733-7177</t>
   </si>
   <si>
-    <t>BEATRIZ MARQUES ROSA DOS SANTOS</t>
+    <t>Beatriz</t>
   </si>
   <si>
     <t>(13) 99685-5347</t>
@@ -76,7 +76,7 @@
     <t>+55(13) 99685-5347</t>
   </si>
   <si>
-    <t>Gustavo Tavares Barboza Silvano</t>
+    <t>Gustavo</t>
   </si>
   <si>
     <t>13 99664-8809</t>
@@ -85,13 +85,10 @@
     <t>+5513 99664-8809</t>
   </si>
   <si>
-    <t>Gustavo dos santos barreto</t>
-  </si>
-  <si>
     <t>+5513996318961</t>
   </si>
   <si>
-    <t>Renan de Andrade Hinoi</t>
+    <t>Renan</t>
   </si>
   <si>
     <t>+5511957093174</t>
@@ -103,7 +100,7 @@
     <t>+5513992149369</t>
   </si>
   <si>
-    <t>FABIO - PARA FILHO (ACHO QUE PESQUISA)</t>
+    <t xml:space="preserve">FABIO </t>
   </si>
   <si>
     <t>11-91104-9489</t>
@@ -696,13 +693,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="12">
         <v>13996318961</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>7</v>
@@ -710,13 +707,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6">
         <v>11957093174</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>7</v>
@@ -724,13 +721,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="13">
         <v>13992149369</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>7</v>
@@ -738,13 +735,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>7</v>
@@ -752,13 +749,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6">
         <v>11966588509</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>7</v>
